--- a/DiscreteEvaporator/InputDoc/Evap_Data.xlsx
+++ b/DiscreteEvaporator/InputDoc/Evap_Data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/ACHP/InputDoc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ammarbahman/Desktop/ACHP/DiscreteEvaporator/InputDoc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,76 +65,76 @@
     <t>nominal air mass flux (kg/s/m^2), correponding to the maximum air flux</t>
   </si>
   <si>
+    <t>tube number in each evaporator branch</t>
+  </si>
+  <si>
+    <t>Frontal area</t>
+  </si>
+  <si>
+    <t>air side convection coefficient (dry coil)</t>
+  </si>
+  <si>
+    <t>refrigerant side convection coefficient</t>
+  </si>
+  <si>
+    <t>refrigerant side pressure drop coefficient</t>
+  </si>
+  <si>
+    <t>air side convection coefficient (wet coil);</t>
+  </si>
+  <si>
+    <t>fouling factor (1.0-no, 0.0-completely)</t>
+  </si>
+  <si>
+    <t>microfin type, 0=smooth tube, 1=helical, 2=cross-grooved, 3=herringbone</t>
+  </si>
+  <si>
+    <t>fin number in a micro-fin tube</t>
+  </si>
+  <si>
+    <t>fin apex angle in a micro-fin tube</t>
+  </si>
+  <si>
+    <t>fin helix angle in a micro-fin tube</t>
+  </si>
+  <si>
+    <t>fin height in a micro-fin tube</t>
+  </si>
+  <si>
+    <t>base width of a single fin</t>
+  </si>
+  <si>
+    <t>top width of a single fin</t>
+  </si>
+  <si>
+    <t>base distance between two neighboring fins</t>
+  </si>
+  <si>
+    <t>airside fin type, 1-plain, 2-corrugated, 3-slit, 4-louvered, 5-convex louvered, 6-smooth wavy, 7-spine</t>
+  </si>
+  <si>
+    <t>substructure of fin surface</t>
+  </si>
+  <si>
+    <t>tube wall conductance</t>
+  </si>
+  <si>
+    <t>fin conductance</t>
+  </si>
+  <si>
+    <t>Evaporator</t>
+  </si>
+  <si>
+    <t>definition</t>
+  </si>
+  <si>
+    <t>number of rows high (tubes per bank)</t>
+  </si>
+  <si>
+    <t>number of rows deep (numer of banks)</t>
+  </si>
+  <si>
     <t>Number of equivalent branches</t>
-  </si>
-  <si>
-    <t>tube number in each evaporator branch</t>
-  </si>
-  <si>
-    <t>number of rows high</t>
-  </si>
-  <si>
-    <t>number of rows deep</t>
-  </si>
-  <si>
-    <t>Frontal area</t>
-  </si>
-  <si>
-    <t>air side convection coefficient (dry coil)</t>
-  </si>
-  <si>
-    <t>refrigerant side convection coefficient</t>
-  </si>
-  <si>
-    <t>refrigerant side pressure drop coefficient</t>
-  </si>
-  <si>
-    <t>air side convection coefficient (wet coil);</t>
-  </si>
-  <si>
-    <t>fouling factor (1.0-no, 0.0-completely)</t>
-  </si>
-  <si>
-    <t>microfin type, 0=smooth tube, 1=helical, 2=cross-grooved, 3=herringbone</t>
-  </si>
-  <si>
-    <t>fin number in a micro-fin tube</t>
-  </si>
-  <si>
-    <t>fin apex angle in a micro-fin tube</t>
-  </si>
-  <si>
-    <t>fin helix angle in a micro-fin tube</t>
-  </si>
-  <si>
-    <t>fin height in a micro-fin tube</t>
-  </si>
-  <si>
-    <t>base width of a single fin</t>
-  </si>
-  <si>
-    <t>top width of a single fin</t>
-  </si>
-  <si>
-    <t>base distance between two neighboring fins</t>
-  </si>
-  <si>
-    <t>airside fin type, 1-plain, 2-corrugated, 3-slit, 4-louvered, 5-convex louvered, 6-smooth wavy, 7-spine</t>
-  </si>
-  <si>
-    <t>substructure of fin surface</t>
-  </si>
-  <si>
-    <t>tube wall conductance</t>
-  </si>
-  <si>
-    <t>fin conductance</t>
-  </si>
-  <si>
-    <t>Evaporator</t>
-  </si>
-  <si>
-    <t>definition</t>
   </si>
 </sst>
 </file>
@@ -453,17 +453,17 @@
   <dimension ref="A1:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -567,7 +567,7 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
@@ -575,7 +575,7 @@
         <v>12</v>
       </c>
       <c r="D15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -583,7 +583,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>15</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -599,7 +599,7 @@
         <v>0.36230000000000001</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -607,7 +607,7 @@
         <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -615,7 +615,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -623,7 +623,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -639,7 +639,7 @@
         <v>1</v>
       </c>
       <c r="B23" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -655,7 +655,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -671,7 +671,7 @@
         <v>0</v>
       </c>
       <c r="D27" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="D30" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -711,7 +711,7 @@
         <v>6</v>
       </c>
       <c r="D32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -743,7 +743,7 @@
         <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
@@ -759,7 +759,7 @@
         <v>400</v>
       </c>
       <c r="D38" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -767,7 +767,7 @@
         <v>237</v>
       </c>
       <c r="D39" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
